--- a/FloodStateCR.xlsx
+++ b/FloodStateCR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A1C46-4D4B-4622-9173-295CF1F58124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315D0800-1E89-4D7E-8BBE-6B1A6C95E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1256,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1314,31 +1314,95 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1346,186 +1410,126 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,10 +1949,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:N13"/>
+      <selection activeCell="D12" sqref="D12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,167 +1971,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="17" t="s">
         <v>318</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2136,1980 +2140,1989 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="5" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="26"/>
-    </row>
-    <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="41" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="3" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+    </row>
+    <row r="17" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="44" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
-    </row>
-    <row r="17" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="5" t="s">
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+    </row>
+    <row r="18" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G18" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="H18" s="38"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D19" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="17" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="3" t="s">
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D20" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="20" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="25" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D22" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="2" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3" t="s">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D23" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="3" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K23" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="5" t="s">
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="5" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K24" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="26"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D25" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="38" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J25" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="3" t="s">
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D27" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="3" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L27" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="5" t="s">
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+    </row>
+    <row r="28" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="5" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K28" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L28" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B29" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D29" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E29" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H29" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="38" t="s">
+      <c r="I29" s="34"/>
+      <c r="J29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="57" t="s">
+      <c r="K29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-    </row>
-    <row r="29" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="2" t="s">
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-    </row>
-    <row r="30" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="3" t="s">
+      <c r="J30" s="26"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K31" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-    </row>
-    <row r="31" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="5" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B33" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F33" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="23" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I33" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="2" t="s">
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-    </row>
-    <row r="34" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="3" t="s">
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+    </row>
+    <row r="35" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I35" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5" t="s">
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
+      <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
-    </row>
-    <row r="37" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="3" t="s">
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
+    </row>
+    <row r="38" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A38" s="36"/>
+      <c r="B38" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F38" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="5" t="s">
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A39" s="36"/>
+      <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F39" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="26"/>
-    </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="38"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F40" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="3" t="s">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
+      <c r="B41" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F41" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-    </row>
-    <row r="41" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="5" t="s">
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
+      <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F42" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="26"/>
-    </row>
-    <row r="42" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="38"/>
+    </row>
+    <row r="43" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="2" t="s">
+      <c r="F43" s="20"/>
+      <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-    </row>
-    <row r="43" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="3" t="s">
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+    </row>
+    <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
+      <c r="B44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="3" t="s">
+      <c r="F44" s="23"/>
+      <c r="G44" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I44" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="46"/>
-    </row>
-    <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="5" t="s">
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="51"/>
+    </row>
+    <row r="45" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
+      <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E45" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="5" t="s">
+      <c r="F45" s="38"/>
+      <c r="G45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I45" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="31"/>
-    </row>
-    <row r="45" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="43"/>
+    </row>
+    <row r="46" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="17" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="17" t="s">
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="19"/>
-    </row>
-    <row r="46" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="3" t="s">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="20"/>
+    </row>
+    <row r="47" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
+      <c r="B47" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="20" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="20" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-    </row>
-    <row r="47" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="5" t="s">
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="23"/>
+    </row>
+    <row r="48" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C48" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="25" t="s">
+      <c r="D48" s="40"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="25" t="s">
+      <c r="G48" s="40"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="26"/>
-    </row>
-    <row r="48" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="38"/>
+    </row>
+    <row r="49" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="7" t="s">
+      <c r="G49" s="39"/>
+      <c r="H49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M48" s="64" t="s">
+      <c r="M49" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="N48" s="65"/>
-    </row>
-    <row r="49" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="3" t="s">
+      <c r="N49" s="34"/>
+    </row>
+    <row r="50" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="20" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="8" t="s">
+      <c r="G50" s="23"/>
+      <c r="H50" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J50" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K50" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L50" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="M49" s="66" t="s">
+      <c r="M50" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="N49" s="67"/>
-    </row>
-    <row r="50" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="5" t="s">
+      <c r="N50" s="45"/>
+    </row>
+    <row r="51" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
+      <c r="B51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="9" t="s">
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J51" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K51" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L51" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="68" t="s">
+      <c r="M51" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="N50" s="69"/>
-    </row>
-    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="N51" s="47"/>
+    </row>
+    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I52" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
-    </row>
-    <row r="52" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="3" t="s">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="20"/>
+    </row>
+    <row r="53" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
+      <c r="B53" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I53" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-    </row>
-    <row r="53" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="5" t="s">
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="23"/>
+    </row>
+    <row r="54" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A54" s="36"/>
+      <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I54" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="26"/>
-    </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="38"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23" t="s">
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="17" t="s">
+      <c r="F55" s="39"/>
+      <c r="G55" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="19"/>
-    </row>
-    <row r="55" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="3" t="s">
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="20"/>
+    </row>
+    <row r="56" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24" t="s">
+      <c r="D56" s="35"/>
+      <c r="E56" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="20" t="s">
+      <c r="F56" s="35"/>
+      <c r="G56" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
-    </row>
-    <row r="56" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E57" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="7" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I57" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="2" t="s">
+      <c r="J57" s="20"/>
+      <c r="K57" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M56" s="23" t="s">
+      <c r="M57" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N56" s="23"/>
-    </row>
-    <row r="57" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="3" t="s">
+      <c r="N57" s="39"/>
+    </row>
+    <row r="58" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
+      <c r="B58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E58" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="8" t="s">
+      <c r="F58" s="23"/>
+      <c r="G58" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I58" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="8" t="s">
+      <c r="J58" s="23"/>
+      <c r="K58" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L58" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M57" s="24" t="s">
+      <c r="M58" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="N57" s="24"/>
-    </row>
-    <row r="58" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="5" t="s">
+      <c r="N58" s="35"/>
+    </row>
+    <row r="59" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
+      <c r="B59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+    </row>
+    <row r="60" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E60" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="7" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I60" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="2" t="s">
+      <c r="J60" s="20"/>
+      <c r="K60" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M59" s="23" t="s">
+      <c r="M60" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N59" s="23"/>
-    </row>
-    <row r="60" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="3" t="s">
+      <c r="N60" s="39"/>
+    </row>
+    <row r="61" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E61" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="8" t="s">
+      <c r="F61" s="23"/>
+      <c r="G61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I61" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="8" t="s">
+      <c r="J61" s="23"/>
+      <c r="K61" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L61" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="M60" s="24" t="s">
+      <c r="M61" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="N60" s="24"/>
-    </row>
-    <row r="61" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="5" t="s">
+      <c r="N61" s="35"/>
+    </row>
+    <row r="62" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-    </row>
-    <row r="62" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+    </row>
+    <row r="63" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E63" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="7" t="s">
+      <c r="F63" s="20"/>
+      <c r="G63" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="I63" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="2" t="s">
+      <c r="J63" s="20"/>
+      <c r="K63" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M62" s="23" t="s">
+      <c r="M63" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N62" s="23"/>
-    </row>
-    <row r="63" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
-      <c r="B63" s="3" t="s">
+      <c r="N63" s="39"/>
+    </row>
+    <row r="64" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E64" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="8" t="s">
+      <c r="F64" s="23"/>
+      <c r="G64" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I64" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="8" t="s">
+      <c r="J64" s="23"/>
+      <c r="K64" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L64" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="M63" s="24" t="s">
+      <c r="M64" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="N63" s="24"/>
-    </row>
-    <row r="64" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="5" t="s">
+      <c r="N64" s="35"/>
+    </row>
+    <row r="65" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-    </row>
-    <row r="65" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+    </row>
+    <row r="66" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E66" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="7" t="s">
+      <c r="F66" s="71"/>
+      <c r="G66" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="I66" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="2" t="s">
+      <c r="J66" s="20"/>
+      <c r="K66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M65" s="23" t="s">
+      <c r="M66" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N65" s="23"/>
-    </row>
-    <row r="66" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="3" t="s">
+      <c r="N66" s="39"/>
+    </row>
+    <row r="67" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36"/>
+      <c r="B67" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E67" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="8" t="s">
+      <c r="F67" s="23"/>
+      <c r="G67" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="I67" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="J66" s="22"/>
-      <c r="K66" s="8" t="s">
+      <c r="J67" s="23"/>
+      <c r="K67" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L67" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="M66" s="24" t="s">
+      <c r="M67" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="N66" s="24"/>
-    </row>
-    <row r="67" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="5" t="s">
+      <c r="N67" s="35"/>
+    </row>
+    <row r="68" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A68" s="36"/>
+      <c r="B68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-    </row>
-    <row r="68" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+    </row>
+    <row r="69" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I68" s="17" t="s">
+      <c r="I69" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J68" s="19"/>
-      <c r="K68" s="2" t="s">
+      <c r="J69" s="20"/>
+      <c r="K69" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="M69" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N68" s="23"/>
-    </row>
-    <row r="69" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="3" t="s">
+      <c r="N69" s="39"/>
+    </row>
+    <row r="70" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="53"/>
+      <c r="B70" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E70" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G70" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I70" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="J69" s="22"/>
-      <c r="K69" s="8" t="s">
+      <c r="J70" s="23"/>
+      <c r="K70" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L70" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="M69" s="24" t="s">
+      <c r="M70" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="N69" s="24"/>
-    </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-    </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="N70" s="35"/>
+    </row>
+    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="54"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+    </row>
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="19"/>
-    </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
-      <c r="B72" s="3" t="s">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
+    </row>
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
+      <c r="B73" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="22"/>
-    </row>
-    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="23"/>
+    </row>
+    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="19"/>
-    </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
+      <c r="B75" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="22"/>
-    </row>
-    <row r="75" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="35" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="23"/>
+    </row>
+    <row r="76" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="37"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="69"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="174">
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="K28:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:N72"/>
     <mergeCell ref="C73:N73"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:N33"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G54:N54"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B76:N76"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C75:N75"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="B3:N3"/>
@@ -4118,89 +4131,96 @@
     <mergeCell ref="B8:N8"/>
     <mergeCell ref="D9:N9"/>
     <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="D12:N12"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:N4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="D13:N13"/>
-    <mergeCell ref="D14:N14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="F37:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C74:N74"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:N34"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="G55:N55"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C74:N74"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="I58:J58"/>
-    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="M58:N58"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
     <mergeCell ref="M59:N59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:N71"/>
-    <mergeCell ref="C72:N72"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="K29:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
